--- a/vignettes/vignette_data/targets.xlsx
+++ b/vignettes/vignette_data/targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\PANIC_saliva\positive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/pablo_vangeenderhuysen_ugent_be/Documents/Documents/TARDIS/vignettes/vignette_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA5821-2623-4DD5-9945-996BCEDCBAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F6AA5821-2623-4DD5-9945-996BCEDCBAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C56F52-E339-47B6-87FF-0E3AD6F6950B}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A01FF7BC-67AF-4716-B7C9-E1D5461E329F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A01FF7BC-67AF-4716-B7C9-E1D5461E329F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1926,13 +1926,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041CFF2C-9EEF-4CA2-A71F-C4809FDA7EE8}">
   <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
